--- a/_data/religion-rss.xlsx
+++ b/_data/religion-rss.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adbrett/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adbrett/Documents/GitHub/orange76xyz/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815ABB4E-DFAC-3E44-9CA8-DC9E2A0D7CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FEE5FA-102A-2542-853C-21DA928FE6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D991FF9C-148D-9342-B715-49325516D119}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>https://religion.ua.edu/blog/feed/</t>
   </si>
   <si>
-    <t>https://religion.ua.edu/wp-content/uploads/2022/10/rs-logo.png</t>
-  </si>
-  <si>
     <t>https://religion.ua.edu/blog/</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>https://www.whitetoolong.net/feed</t>
   </si>
   <si>
-    <t>https://substackcdn.com/image/fetch/w_96,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fbucketeer-e05bbc84-baa3-437e-9518-adb32be77984.s3.amazonaws.com%2Fpublic%2Fimages%2F6ce1d537-6962-4db0-af13-1a90653eb347_512x512.png</t>
-  </si>
-  <si>
     <t>https://anchor.fm/s/baa65a08/podcast/rss</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>Te Ture Tāhae Whenua - The Doctrine of Discovery in Aotearoa</t>
   </si>
   <si>
-    <t>https://substackcdn.com/image/fetch/w_96,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fsubstack-post-media.s3.amazonaws.com%2Fpublic%2Fimages%2F8447cf58-f9d0-4a3f-a448-8f396c0a4ed9_404x404.png</t>
-  </si>
-  <si>
     <t>https://tinangata.substack.com/feed</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>https://stevennewcomb.substack.com/feed/</t>
   </si>
   <si>
-    <t>https://substackcdn.com/image/fetch/w_96,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fsubstack-post-media.s3.amazonaws.com%2Fpublic%2Fimages%2F75732069-1048-4cf4-a63a-0e30714fef69_562x562.png</t>
-  </si>
-  <si>
     <t>Religion in United States History</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>https://usreligion.substack.com/feed/</t>
   </si>
   <si>
-    <t>https://substackcdn.com/image/fetch/w_96,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fsubstack-post-media.s3.amazonaws.com%2Fpublic%2Fimages%2F9ff81c51-d8a9-46df-81e2-c1507960132e_144x144.png</t>
-  </si>
-  <si>
     <t>Andrew Whitehead</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
     <t>https://anchor.fm/s/5e43bc9c/podcast/rss</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/ancient-afterlives-ancient-afterlives-yF-g3ObvNKh-LRj6ZBdJEMe.300x300.jpg</t>
-  </si>
-  <si>
     <t>Religion for Breakfast</t>
   </si>
   <si>
@@ -395,9 +377,6 @@
     <t>https://feeds.megaphone.fm/ADL4119301527</t>
   </si>
   <si>
-    <t>https://syndicate.network/wp-content/themes/kauaicreative.com/images/Syndicatenetwork_logo.svg</t>
-  </si>
-  <si>
     <t>Syndicate Network</t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t>American Idols</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/american-idols-axis-mundi-media-5esWonDiBTA-puElqGJHOtf.300x300.jpg</t>
-  </si>
-  <si>
     <t>https://redcircle.com/shows/americanidols?utm_source=listennotes.com&amp;utm_campaign=Listen+Notes&amp;utm_medium=website</t>
   </si>
   <si>
@@ -485,9 +461,6 @@
     <t>https://www.wabashcenter.wabash.edu/resources/blog/</t>
   </si>
   <si>
-    <t>https://www.wabashcenter.wabash.edu/wp-content/themes/wabash-child-theme/images/logo.png</t>
-  </si>
-  <si>
     <t>https://www.wabashcenter.wabash.edu/feed/</t>
   </si>
   <si>
@@ -497,9 +470,6 @@
     <t>https://rsn.aarweb.org/</t>
   </si>
   <si>
-    <t>https://rsn.aarweb.org/sites/default/files/Religious_Studies_News_h100.png</t>
-  </si>
-  <si>
     <t>https://rsn.aarweb.org/rss.xml</t>
   </si>
   <si>
@@ -569,15 +539,9 @@
     <t>https://religiondispatches.org/</t>
   </si>
   <si>
-    <t>https://religiondispatches.org/wp-content/uploads/2014/06/rdwhatsup_crop_small.jpg</t>
-  </si>
-  <si>
     <t>https://religiondispatches.org/feed/</t>
   </si>
   <si>
-    <t>https://religionlab.virginia.edu/wp-content/uploads/2019/01/Religion_Race__Dem@2x.png</t>
-  </si>
-  <si>
     <t>Religion Race and Democracy Lab, UVA</t>
   </si>
   <si>
@@ -608,9 +572,6 @@
     <t>https://usreligion.blogspot.com/feeds/posts/default</t>
   </si>
   <si>
-    <t>https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/305772201_955348428689346_3707735780192118610_n.jpg?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=5f2048&amp;_nc_ohc=g-lcMKisU-MAb7ZwAu4&amp;_nc_ht=scontent-atl3-2.xx&amp;oh=00_AfBAmH9_Blz8bSgDJpY3PhUEIDnH5LX783_wEoZtwWA1eg&amp;oe=6632DB6A</t>
-  </si>
-  <si>
     <t>Religion and Politics</t>
   </si>
   <si>
@@ -620,9 +581,6 @@
     <t>https://religionandpolitics.org/feed/</t>
   </si>
   <si>
-    <t>https://religionandpolitics.org/wp-content/uploads/2023/05/Untitled-design-199.jpg</t>
-  </si>
-  <si>
     <t>Feminism and Religion</t>
   </si>
   <si>
@@ -659,15 +617,9 @@
     <t>https://www.aprilonline.org/the-commons/</t>
   </si>
   <si>
-    <t>https://www.aprilonline.org/wp-content/uploads/2020/10/April-logo02.png</t>
-  </si>
-  <si>
     <t>https://www.aprilonline.org/feed/</t>
   </si>
   <si>
-    <t>https://ssrc-static.s3.amazonaws.com/wp-content/uploads/2017/07/29175006/TIF_logo_Final-01-1.png</t>
-  </si>
-  <si>
     <t>The Immanent Frame</t>
   </si>
   <si>
@@ -704,12 +656,6 @@
     <t>https://www.patheos.com/blogs/religionprof/feed</t>
   </si>
   <si>
-    <t>https://www.patheos.com/blogs/wp-content/themes/Patheos%20TwentySeventeen/assets/images/favicons/apple-touch-icon.png</t>
-  </si>
-  <si>
-    <t>https://religionmatters.org/wp-content/uploads/2023/04/cropped-Original-Logo-1.png?w=2021&amp;ssl=1</t>
-  </si>
-  <si>
     <t>Jewish Philosophy Place</t>
   </si>
   <si>
@@ -783,6 +729,66 @@
   </si>
   <si>
     <t>politicaltheology.png</t>
+  </si>
+  <si>
+    <t>religionandpolitics.jpg</t>
+  </si>
+  <si>
+    <t>religiondispatches.jpg</t>
+  </si>
+  <si>
+    <t>usreligion.jpg</t>
+  </si>
+  <si>
+    <t>religioninunitedstateshistory.jpg</t>
+  </si>
+  <si>
+    <t>religionmatters.png</t>
+  </si>
+  <si>
+    <t>religionlab.png</t>
+  </si>
+  <si>
+    <t>patheos.png</t>
+  </si>
+  <si>
+    <t>rsn.png</t>
+  </si>
+  <si>
+    <t>religiousstudiesproject.png</t>
+  </si>
+  <si>
+    <t>religion-ua.png</t>
+  </si>
+  <si>
+    <t>Syndicatenetwork.svg</t>
+  </si>
+  <si>
+    <t>tinangata.jpg</t>
+  </si>
+  <si>
+    <t>aprilonline.png</t>
+  </si>
+  <si>
+    <t>stevennewcomb.jpg</t>
+  </si>
+  <si>
+    <t>the-immanent-frame.png</t>
+  </si>
+  <si>
+    <t>the-revealer.png</t>
+  </si>
+  <si>
+    <t>wabash.png</t>
+  </si>
+  <si>
+    <t>whitetoolong.jpg</t>
+  </si>
+  <si>
+    <t>american-idols.jpg</t>
+  </si>
+  <si>
+    <t>ancient-afterlives.jpg</t>
   </si>
 </sst>
 </file>
@@ -847,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -859,6 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,12 +1204,13 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1225,121 +1233,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1350,27 +1358,27 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
@@ -1378,308 +1386,308 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1690,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1704,166 +1712,166 @@
         <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>10</v>
@@ -1871,16 +1879,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -1888,16 +1896,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
@@ -1905,16 +1913,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
@@ -1922,16 +1930,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
@@ -1939,16 +1947,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -1956,16 +1964,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
@@ -1973,16 +1981,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>10</v>
@@ -1990,16 +1998,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -2007,16 +2015,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
@@ -2024,14 +2032,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -2039,16 +2047,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
@@ -2056,16 +2064,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
@@ -2073,16 +2081,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -2090,16 +2098,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
@@ -2107,16 +2115,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
@@ -2124,16 +2132,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
@@ -2141,16 +2149,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
@@ -2175,16 +2183,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2192,16 +2200,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
@@ -2226,16 +2234,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
@@ -2243,16 +2251,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
@@ -2260,16 +2268,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -2290,13 +2298,13 @@
     <hyperlink ref="D5" r:id="rId7" xr:uid="{834AD146-D3D9-A941-86A7-9884124E7D31}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{7551C065-674E-5743-B511-DD2FC8C49589}"/>
     <hyperlink ref="B20" r:id="rId9" xr:uid="{F9A7199E-1CD1-9942-8713-D32FAAA9E11C}"/>
-    <hyperlink ref="C25" r:id="rId10" xr:uid="{416D265A-81BE-E643-8D3A-B57D61C2BDD0}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{EFB4000A-3FFE-9A43-B1D8-627B49450530}"/>
-    <hyperlink ref="B5" r:id="rId12" xr:uid="{B94C9833-A875-4B43-BA9C-B43DF2CB8472}"/>
-    <hyperlink ref="B6" r:id="rId13" xr:uid="{D8DE5E70-A924-F54C-BB9B-33961DB9D429}"/>
-    <hyperlink ref="B12" r:id="rId14" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{EFB4000A-3FFE-9A43-B1D8-627B49450530}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{B94C9833-A875-4B43-BA9C-B43DF2CB8472}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{D8DE5E70-A924-F54C-BB9B-33961DB9D429}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
+    <hyperlink ref="B34" r:id="rId16" xr:uid="{3D275AAE-781B-E44D-A32D-8C30E3E3E57F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/religion-rss.xlsx
+++ b/_data/religion-rss.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adbrett/Documents/GitHub/orange76xyz/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FEE5FA-102A-2542-853C-21DA928FE6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE671E-D1B0-4D44-A119-B7A1BC7163F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D991FF9C-148D-9342-B715-49325516D119}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -671,138 +671,134 @@
     <t>https://affecognitive.wordpress.com/feed</t>
   </si>
   <si>
-    <t>affecognitive.jpg</t>
-  </si>
-  <si>
-    <t>aila.png</t>
-  </si>
-  <si>
-    <t>itself.jpg</t>
-  </si>
-  <si>
-    <t>andrewwhitehead.jpg</t>
-  </si>
-  <si>
-    <t>barthsnotes.jpg</t>
-  </si>
-  <si>
-    <t>thebiblefornormalpeople.png</t>
-  </si>
-  <si>
-    <t>classicalideaspodcast.jpg</t>
-  </si>
-  <si>
-    <t>craigmartinreligion.jpg</t>
-  </si>
-  <si>
-    <t>currents-in-religion.jpg</t>
-  </si>
-  <si>
-    <t>doctrineofdiscovery.png</t>
-  </si>
-  <si>
-    <t>feminismandreligion.png</t>
-  </si>
-  <si>
-    <t>fsrinc.png</t>
-  </si>
-  <si>
-    <t>indigenousvalues.png</t>
-  </si>
-  <si>
-    <t>jewishphilosophyplace.png</t>
-  </si>
-  <si>
-    <t>kenchitwood.jpg</t>
-  </si>
-  <si>
-    <t>canopyforum.jpg</t>
-  </si>
-  <si>
-    <t>killingthebuddha.svg</t>
-  </si>
-  <si>
-    <t>thensrn.png</t>
-  </si>
-  <si>
-    <t>originalfreenations.png</t>
-  </si>
-  <si>
-    <t>politicaltheology.png</t>
-  </si>
-  <si>
-    <t>religionandpolitics.jpg</t>
-  </si>
-  <si>
-    <t>religiondispatches.jpg</t>
-  </si>
-  <si>
-    <t>usreligion.jpg</t>
-  </si>
-  <si>
-    <t>religioninunitedstateshistory.jpg</t>
-  </si>
-  <si>
-    <t>religionmatters.png</t>
-  </si>
-  <si>
-    <t>religionlab.png</t>
-  </si>
-  <si>
-    <t>patheos.png</t>
-  </si>
-  <si>
-    <t>rsn.png</t>
-  </si>
-  <si>
-    <t>religiousstudiesproject.png</t>
-  </si>
-  <si>
-    <t>religion-ua.png</t>
-  </si>
-  <si>
-    <t>Syndicatenetwork.svg</t>
-  </si>
-  <si>
-    <t>tinangata.jpg</t>
-  </si>
-  <si>
-    <t>aprilonline.png</t>
-  </si>
-  <si>
-    <t>stevennewcomb.jpg</t>
-  </si>
-  <si>
-    <t>the-immanent-frame.png</t>
-  </si>
-  <si>
-    <t>the-revealer.png</t>
-  </si>
-  <si>
-    <t>wabash.png</t>
-  </si>
-  <si>
-    <t>whitetoolong.jpg</t>
-  </si>
-  <si>
-    <t>american-idols.jpg</t>
-  </si>
-  <si>
-    <t>ancient-afterlives.jpg</t>
+    <t>/images/sites/affecognitive.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/aila.png</t>
+  </si>
+  <si>
+    <t>/images/sites/itself.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/andrewwhitehead.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/barthsnotes.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/thebiblefornormalpeople.png</t>
+  </si>
+  <si>
+    <t>/images/sites/canopyforum.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/craigmartinreligion.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/currents-in-religion.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/doctrineofdiscovery.png</t>
+  </si>
+  <si>
+    <t>/images/sites/feminismandreligion.png</t>
+  </si>
+  <si>
+    <t>/images/sites/fsrinc.png</t>
+  </si>
+  <si>
+    <t>/images/sites/indigenousvalues.png</t>
+  </si>
+  <si>
+    <t>/images/sites/jewishphilosophyplace.png</t>
+  </si>
+  <si>
+    <t>/images/sites/kenchitwood.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/killingthebuddha.svg</t>
+  </si>
+  <si>
+    <t>/images/sites/thensrn.png</t>
+  </si>
+  <si>
+    <t>/images/sites/originalfreenations.png</t>
+  </si>
+  <si>
+    <t>/images/sites/politicaltheology.png</t>
+  </si>
+  <si>
+    <t>/images/sites/religionandpolitics.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/religiondispatches.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/usreligion.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/religioninunitedstateshistory.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/religionmatters.png</t>
+  </si>
+  <si>
+    <t>/images/sites/religionlab.png</t>
+  </si>
+  <si>
+    <t>/images/sites/patheos.png</t>
+  </si>
+  <si>
+    <t>/images/sites/rsn.png</t>
+  </si>
+  <si>
+    <t>/images/sites/religiousstudiesproject.png</t>
+  </si>
+  <si>
+    <t>/images/sites/religion-ua.png</t>
+  </si>
+  <si>
+    <t>/images/sites/Syndicatenetwork.svg</t>
+  </si>
+  <si>
+    <t>/images/sites/tinangata.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/aprilonline.png</t>
+  </si>
+  <si>
+    <t>/images/sites/stevennewcomb.jpg</t>
+  </si>
+  <si>
+    <t>/images/sites/the-immanent-frame.png</t>
+  </si>
+  <si>
+    <t>/images/sites/the-revealer.png</t>
+  </si>
+  <si>
+    <t>/images/sites/wabash.png</t>
+  </si>
+  <si>
+    <t>/images/sites/whitetoolong.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/american-idols.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/ancient-afterlives.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/classicalideaspodcast.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/podacre.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -832,15 +828,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -848,24 +850,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1204,8 +1222,8 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,19 +1233,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1341,7 +1359,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>156</v>
@@ -1456,7 +1474,7 @@
       <c r="A15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1473,7 +1491,7 @@
       <c r="A16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1494,7 +1512,7 @@
         <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>147</v>
@@ -1511,7 +1529,7 @@
         <v>198</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>199</v>
@@ -1528,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>46</v>
@@ -1545,7 +1563,7 @@
         <v>138</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>137</v>
@@ -1562,7 +1580,7 @@
         <v>179</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>180</v>
@@ -1579,7 +1597,7 @@
         <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>167</v>
@@ -1596,7 +1614,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>177</v>
@@ -1613,7 +1631,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>55</v>
@@ -1630,7 +1648,7 @@
         <v>201</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>202</v>
@@ -1647,7 +1665,7 @@
         <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>170</v>
@@ -1664,7 +1682,7 @@
         <v>204</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>205</v>
@@ -1681,7 +1699,7 @@
         <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>144</v>
@@ -1698,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1715,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>19</v>
@@ -1732,7 +1750,7 @@
         <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>115</v>
@@ -1749,7 +1767,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>49</v>
@@ -1766,7 +1784,7 @@
         <v>192</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>193</v>
@@ -1779,11 +1797,11 @@
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>52</v>
@@ -1800,7 +1818,7 @@
         <v>195</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>196</v>
@@ -1816,8 +1834,8 @@
       <c r="B36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>246</v>
+      <c r="C36" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>150</v>
@@ -1834,7 +1852,7 @@
         <v>140</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>141</v>
@@ -1851,7 +1869,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>27</v>
@@ -1861,450 +1879,452 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="D62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B63" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="C63" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E62">
-    <sortCondition ref="E2:E62"/>
-    <sortCondition ref="A2:A62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
+    <sortCondition ref="E2:E61"/>
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{D5292266-44C8-9248-9C17-F04783FE0D2C}"/>
     <hyperlink ref="B30" r:id="rId2" xr:uid="{FDD00C35-3307-734A-99D2-7CE5DB376D33}"/>
     <hyperlink ref="D38" r:id="rId3" xr:uid="{C494E457-A8D9-DD4F-B2E5-EC6EA9D757C5}"/>
-    <hyperlink ref="C14" r:id="rId4" display="https://indigenousvalues.org/wp-content/uploads/2020/12/Indigenous-Values-Initiative-new-logo-200x200-1.png" xr:uid="{146E8C1A-B8E3-B94C-832A-DF03C313CD49}"/>
-    <hyperlink ref="D19" r:id="rId5" xr:uid="{B26647E9-1FB4-A64C-BB43-ED1685F91C95}"/>
-    <hyperlink ref="D24" r:id="rId6" xr:uid="{814310BF-92AC-1647-B152-2D32BF1B997A}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{834AD146-D3D9-A941-86A7-9884124E7D31}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{7551C065-674E-5743-B511-DD2FC8C49589}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{F9A7199E-1CD1-9942-8713-D32FAAA9E11C}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{EFB4000A-3FFE-9A43-B1D8-627B49450530}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{B94C9833-A875-4B43-BA9C-B43DF2CB8472}"/>
-    <hyperlink ref="B6" r:id="rId12" xr:uid="{D8DE5E70-A924-F54C-BB9B-33961DB9D429}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
-    <hyperlink ref="B34" r:id="rId16" xr:uid="{3D275AAE-781B-E44D-A32D-8C30E3E3E57F}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{B26647E9-1FB4-A64C-BB43-ED1685F91C95}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{814310BF-92AC-1647-B152-2D32BF1B997A}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{834AD146-D3D9-A941-86A7-9884124E7D31}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{7551C065-674E-5743-B511-DD2FC8C49589}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{F9A7199E-1CD1-9942-8713-D32FAAA9E11C}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{EFB4000A-3FFE-9A43-B1D8-627B49450530}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{B94C9833-A875-4B43-BA9C-B43DF2CB8472}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{D8DE5E70-A924-F54C-BB9B-33961DB9D429}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
+    <hyperlink ref="B34" r:id="rId15" xr:uid="{3D275AAE-781B-E44D-A32D-8C30E3E3E57F}"/>
+    <hyperlink ref="B63" r:id="rId16" xr:uid="{6012B879-2B96-F843-85CD-4E7D46117364}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/religion-rss.xlsx
+++ b/_data/religion-rss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adbrett/Documents/GitHub/orange76xyz/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE671E-D1B0-4D44-A119-B7A1BC7163F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3552020-686D-A046-9B44-DD553D206DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D991FF9C-148D-9342-B715-49325516D119}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29220" windowHeight="21100" xr2:uid="{D991FF9C-148D-9342-B715-49325516D119}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="262">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>https://www.religiousstudiesproject.com/</t>
   </si>
   <si>
-    <t>https://www.religiousstudiesproject.com/wp-content/uploads/2022/02/new_logo_large_1400x1400-1-300x300.png</t>
-  </si>
-  <si>
     <t>https://www.religiousstudiesproject.com/feed/podcast</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>https://feeds.soundcloud.com/users/soundcloud:users:292303945/sounds.rss</t>
   </si>
   <si>
-    <t>https://religion.ua.edu/wp-content/uploads/2022/10/017-headphones-3.png</t>
-  </si>
-  <si>
     <t>https://religion.ua.edu/about/podcasts/</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>https://religion.ua.edu/blog/</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/the-religious-studies-podcast--4Rt9WLhx6B-CFq31RgVXKL.300x300.jpg</t>
-  </si>
-  <si>
     <t>https://thereligiousstudiespodcast.substack.com/</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>https://podcast.doctrineofdiscovery.org/</t>
   </si>
   <si>
-    <t>https://podcast.doctrineofdiscovery.org/assets/images/mapping-doctrine-of-discovery-favicon.png</t>
-  </si>
-  <si>
     <t>https://podcast.doctrineofdiscovery.org/feed.xml</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
     <t>https://www.buzzsprout.com/880843</t>
   </si>
   <si>
-    <t>https://storage.buzzsprout.com/rkb4hd7vplwosvbrb2z5p8uco3l3</t>
-  </si>
-  <si>
     <t>Feminists Talk Religion</t>
   </si>
   <si>
@@ -272,18 +257,12 @@
     <t>https://www.youtube.com/feeds/videos.xml?channel_id=UCct9aR7HC79Cv2g-9oDOTLw</t>
   </si>
   <si>
-    <t>https://yt3.googleusercontent.com/ytc/AIdro_m0eqOoZiZaOQe_4snOnFTnnwLwu7zRkKpHhx-EcbG-Jw=s176-c-k-c0x00ffffff-no-rj</t>
-  </si>
-  <si>
     <t>Weird Religion</t>
   </si>
   <si>
     <t>https://www.weirdreligion.com/</t>
   </si>
   <si>
-    <t>https://content-images.p-cdn.com/images/c5/8b/7b/51/e61049c9b76aa8f0ec578cfd/_500W_500H.jpg</t>
-  </si>
-  <si>
     <t>https://www.weirdreligion.com/seasonone?format=rss</t>
   </si>
   <si>
@@ -296,15 +275,9 @@
     <t>https://podcasts.apple.com/us/podcast/data-over-dogma/id1681418502?ign-itscg=30200&amp;ign-itsct=podcast_box_link</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/data-over-dogma-daniel-mcclellan-and-daniel-ASunT-w3JfM-lSzi3QVGoHD.1400x1400.jpg</t>
-  </si>
-  <si>
     <t>Straight White American Jesus</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/straight-white-american-jesus-bradley-lj3hPQOz0vF-MaskbN7r-06.300x286.jpg</t>
-  </si>
-  <si>
     <t>https://feeds.megaphone.fm/PPY9950636314</t>
   </si>
   <si>
@@ -320,9 +293,6 @@
     <t>https://feeds.buzzsprout.com/810974.rss</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/keeping-it-101-a-killjoys-introduction-to-SEzOaGj4LpK-mYwJWO1VTuN.300x300.jpg</t>
-  </si>
-  <si>
     <t>Du Mez CONNECTIONS</t>
   </si>
   <si>
@@ -338,9 +308,6 @@
     <t>https://www.christiancentury.org/podcast/madang</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/madang-grace-ji-sun-kim-EP28yXZmTOs-rSvlCpALceF.300x300.jpg</t>
-  </si>
-  <si>
     <t>https://anchor.fm/s/4ead88d0/podcast/rss</t>
   </si>
   <si>
@@ -353,21 +320,12 @@
     <t>https://podcasts.apple.com/us/podcast/monster-in-the-mirror/id1654399705?ign-itscg=30200&amp;ign-itsct=podcast_box_link</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/monster-in-the-mirror-OCtWLX7aulI-4CJyE7xsIXc.300x300.jpg</t>
-  </si>
-  <si>
-    <t>https://substackcdn.com/image/fetch/w_96,c_limit,f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fbucketeer-e05bbc84-baa3-437e-9518-adb32be77984.s3.amazonaws.com%2Fpublic%2Fimages%2Fed53e88c-e664-4326-bfc4-be7c84013677_853x853.png</t>
-  </si>
-  <si>
     <t>Bible For Normal People Blog</t>
   </si>
   <si>
     <t>Bible For Normal People Podcast</t>
   </si>
   <si>
-    <t>https://thebiblefornormalpeople.com/wp-content/uploads/2023/05/b4np-logo-720.png</t>
-  </si>
-  <si>
     <t>https://thebiblefornormalpeople.com/blog/</t>
   </si>
   <si>
@@ -395,9 +353,6 @@
     <t>https://icjs.org/charismatic-revival-fury/</t>
   </si>
   <si>
-    <t>https://www.axismundi.us/wp-content/uploads/2023/08/Axis-Mundi-Charismatic-Revival-Fury-Cover-v1-1024x1024.jpg</t>
-  </si>
-  <si>
     <t>https://feeds.redcircle.com/40ace99d-7388-4a73-becb-c7f20c0e51e1</t>
   </si>
   <si>
@@ -407,9 +362,6 @@
     <t>https://www.axismundi.us/pure-white/</t>
   </si>
   <si>
-    <t>https://www.axismundi.us/wp-content/uploads/2023/08/Axis-Mundi-Pure-White-Cover-v1-1024x1024.jpg</t>
-  </si>
-  <si>
     <t>https://feeds.redcircle.com/7ecd7912-5927-4aa2-a2af-6a50982114d2</t>
   </si>
   <si>
@@ -419,9 +371,6 @@
     <t>https://www.axismundi.us/on-gods-campus/</t>
   </si>
   <si>
-    <t>https://www.axismundi.us/wp-content/uploads/2023/09/on-gods-campus-1-1024x1024.png</t>
-  </si>
-  <si>
     <t>https://feeds.redcircle.com/072fa3d8-8cef-44c5-94d6-4f3b18a1ac34</t>
   </si>
   <si>
@@ -443,9 +392,6 @@
     <t>https://feeds.megaphone.fm/LIT9789987066</t>
   </si>
   <si>
-    <t>https://d8q167itd1z7d.cloudfront.net/craft3/_mediumSquare/religion_2022-08-12-194905_hgzb.png</t>
-  </si>
-  <si>
     <t>Political Theology</t>
   </si>
   <si>
@@ -491,9 +437,6 @@
     <t>https://therevealer.org/feed/</t>
   </si>
   <si>
-    <t>https://therevealer.org/wp-content/uploads/2021/10/Logo1-150x150.png</t>
-  </si>
-  <si>
     <t>The Revealer Podcast</t>
   </si>
   <si>
@@ -560,9 +503,6 @@
     <t>https://feeds.blubrry.com/feeds/sacred_profane.xml</t>
   </si>
   <si>
-    <t>https://assets.blubrry.com/coverart/orig/755039-199542.jpg</t>
-  </si>
-  <si>
     <t>Religion in American History</t>
   </si>
   <si>
@@ -608,9 +548,6 @@
     <t>https://soundcloud.com/user-829560134?utm_source=listennotes.com&amp;utm_campaign=Listen+Notes&amp;utm_medium=website</t>
   </si>
   <si>
-    <t>https://cdn-images-3.listennotes.com/podcasts/new-testament-review-new-testament-review-E6u_V2waGpC-7G-MlZi_WbY.300x300.jpg</t>
-  </si>
-  <si>
     <t>The Commons by APRIL Online</t>
   </si>
   <si>
@@ -792,6 +729,99 @@
   </si>
   <si>
     <t>/images/podcasts/podacre.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/crharismatic-revival-fury.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/data-over-dogma.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/feminists-talk-religion.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/keepingit101.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/madang.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/mapping-doctrine-of-discovery.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/monster-in-the-mirror.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/nbn-religion.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/ntreview.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/on-gods-campus.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/pure-white.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/rfb.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/religiousstudiesproject.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/the-religious-studies-podcast.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/sacred-profane.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/swaj.jpg</t>
+  </si>
+  <si>
+    <t>/images/podcasts/religion-ua.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/r.png</t>
+  </si>
+  <si>
+    <t>/images/podcasts/weird-religion.jpg</t>
+  </si>
+  <si>
+    <t>Image Journal</t>
+  </si>
+  <si>
+    <t>https://imagejournal.org/</t>
+  </si>
+  <si>
+    <t>https://imagejournal.org/feed/</t>
+  </si>
+  <si>
+    <t>Culture on Edge</t>
+  </si>
+  <si>
+    <t>https://edge.ua.edu/identity/</t>
+  </si>
+  <si>
+    <t>https://edge.ua.edu/feed/</t>
+  </si>
+  <si>
+    <t>/images/sites/image.png</t>
+  </si>
+  <si>
+    <t>/images/sites/edge.jpg</t>
+  </si>
+  <si>
+    <t>Home Brewed Christianity</t>
+  </si>
+  <si>
+    <t>https://trippfuller.com/</t>
+  </si>
+  <si>
+    <t>https://trippfuller.com/category/podcast/feed/</t>
+  </si>
+  <si>
+    <t>/images/podcasts/hbx.jpg</t>
   </si>
 </sst>
 </file>
@@ -828,7 +858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,8 +871,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -865,12 +901,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -884,6 +931,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1219,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665E0CDF-D6AF-CA4C-9D5F-7A689566CF7D}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,1080 +1305,1131 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>253</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>85</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>222</v>
+        <v>161</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>223</v>
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>207</v>
+        <v>250</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>207</v>
+        <v>256</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>225</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>143</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>205</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>138</v>
+        <v>176</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>210</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>234</v>
+        <v>156</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>170</v>
+        <v>212</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>236</v>
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>124</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>245</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>10</v>
+      <c r="A39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>10</v>
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>10</v>
+      <c r="A43" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>10</v>
+      <c r="A44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>10</v>
+      <c r="A45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>10</v>
+      <c r="A46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>10</v>
+      <c r="A49" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>122</v>
+        <v>164</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>185</v>
+        <v>79</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E61">
-    <sortCondition ref="E2:E61"/>
-    <sortCondition ref="A2:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E66">
+    <sortCondition ref="E2:E66"/>
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{D5292266-44C8-9248-9C17-F04783FE0D2C}"/>
-    <hyperlink ref="B30" r:id="rId2" xr:uid="{FDD00C35-3307-734A-99D2-7CE5DB376D33}"/>
-    <hyperlink ref="D38" r:id="rId3" xr:uid="{C494E457-A8D9-DD4F-B2E5-EC6EA9D757C5}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{B26647E9-1FB4-A64C-BB43-ED1685F91C95}"/>
-    <hyperlink ref="D24" r:id="rId5" xr:uid="{814310BF-92AC-1647-B152-2D32BF1B997A}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{FDD00C35-3307-734A-99D2-7CE5DB376D33}"/>
+    <hyperlink ref="D40" r:id="rId3" xr:uid="{C494E457-A8D9-DD4F-B2E5-EC6EA9D757C5}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{B26647E9-1FB4-A64C-BB43-ED1685F91C95}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{814310BF-92AC-1647-B152-2D32BF1B997A}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{834AD146-D3D9-A941-86A7-9884124E7D31}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{7551C065-674E-5743-B511-DD2FC8C49589}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{F9A7199E-1CD1-9942-8713-D32FAAA9E11C}"/>
+    <hyperlink ref="B22" r:id="rId8" xr:uid="{F9A7199E-1CD1-9942-8713-D32FAAA9E11C}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{EFB4000A-3FFE-9A43-B1D8-627B49450530}"/>
     <hyperlink ref="B5" r:id="rId10" xr:uid="{B94C9833-A875-4B43-BA9C-B43DF2CB8472}"/>
     <hyperlink ref="B6" r:id="rId11" xr:uid="{D8DE5E70-A924-F54C-BB9B-33961DB9D429}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
-    <hyperlink ref="B34" r:id="rId15" xr:uid="{3D275AAE-781B-E44D-A32D-8C30E3E3E57F}"/>
-    <hyperlink ref="B63" r:id="rId16" xr:uid="{6012B879-2B96-F843-85CD-4E7D46117364}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{ED624B05-2FB0-214E-BAD0-60FD81F31905}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{53E58936-2425-B24B-9995-38458968360E}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{2B9B0FFB-DD46-4A48-9395-77518F1F8B40}"/>
+    <hyperlink ref="B36" r:id="rId15" xr:uid="{3D275AAE-781B-E44D-A32D-8C30E3E3E57F}"/>
+    <hyperlink ref="B53" r:id="rId16" xr:uid="{6012B879-2B96-F843-85CD-4E7D46117364}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/religion-rss.xlsx
+++ b/_data/religion-rss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adbrett/Documents/GitHub/orange76xyz/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3552020-686D-A046-9B44-DD553D206DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5ED6BD-3E19-BC4A-BDD6-9A17C7493877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29220" windowHeight="21100" xr2:uid="{D991FF9C-148D-9342-B715-49325516D119}"/>
   </bookViews>
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -931,10 +931,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1276,7 +1275,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1443,13 +1442,13 @@
       <c r="A10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>255</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1477,7 +1476,7 @@
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1528,13 +1527,13 @@
       <c r="A15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>252</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2001,70 +2000,70 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2103,19 +2102,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2358,53 +2357,53 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>9</v>
       </c>
     </row>
